--- a/population_data/2006_population.xlsx
+++ b/population_data/2006_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Documents\Uni Heidelberg\4. Semester\Bioinformatik\github\topic04_team01\population_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6AC7A0-FAC8-490F-A7E8-A97ED829CB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C783927C-8461-4BC9-A5FE-E4D61A73DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9518939-CF3A-486D-A08D-17E79C7D5ADA}"/>
   </bookViews>
@@ -956,7 +956,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A78"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
